--- a/code/results/paths.xlsx
+++ b/code/results/paths.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -382,6 +382,9 @@
       <c r="F1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -389,7 +392,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -412,6 +415,7 @@
           <t>elapsed_time</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -419,7 +423,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -442,6 +446,7 @@
           <t>elapsed_time</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -449,7 +454,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -472,6 +477,7 @@
           <t>elapsed_time</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -479,7 +485,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -502,6 +508,7 @@
           <t>elapsed_time</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -509,7 +516,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -519,7 +526,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>x_solve</t>
+          <t>txinvr</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -532,6 +539,7 @@
           <t>elapsed_time</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -539,7 +547,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +557,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>x_solve</t>
+          <t>txinvr</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -562,6 +570,7 @@
           <t>elapsed_time</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -569,7 +578,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -579,15 +588,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>y_solve</t>
+          <t>x_solve</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>ninvr</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>timer_start</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>elapsed_time</t>
         </is>
@@ -599,7 +613,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -609,15 +623,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>y_solve</t>
+          <t>x_solve</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>ninvr</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>timer_stop</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>elapsed_time</t>
         </is>
@@ -629,7 +648,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -639,15 +658,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>z_solve</t>
+          <t>y_solve</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>pinvr</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>timer_start</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>elapsed_time</t>
         </is>
@@ -659,7 +683,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -669,15 +693,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>z_solve</t>
+          <t>y_solve</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>pinvr</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>timer_stop</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>elapsed_time</t>
         </is>
@@ -689,25 +718,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>verify</t>
+          <t>adi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>compute_rhs</t>
+          <t>z_solve</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>tzetar</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>timer_start</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>elapsed_time</t>
         </is>
@@ -719,25 +753,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>verify</t>
+          <t>adi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>compute_rhs</t>
+          <t>z_solve</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>tzetar</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>timer_stop</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>elapsed_time</t>
         </is>
@@ -749,25 +788,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>adi</t>
+          <t>verify</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>x_solve</t>
+          <t>compute_rhs</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>binvcrhs</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>timer_start</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>elapsed_time</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -775,25 +819,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>adi</t>
+          <t>verify</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>y_solve</t>
+          <t>compute_rhs</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>binvcrhs</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>timer_stop</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>elapsed_time</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -801,7 +850,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -811,15 +860,16 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>z_solve</t>
+          <t>x_solve</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>binvcrhs</t>
+          <t>lhsinit</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -827,7 +877,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -837,15 +887,16 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>x_solve</t>
+          <t>y_solve</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>binvrhs</t>
+          <t>lhsinitj</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -853,7 +904,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -863,15 +914,16 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>y_solve</t>
+          <t>z_solve</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>binvrhs</t>
+          <t>lhsinitj</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -879,25 +931,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>adi</t>
+          <t>exact_rhs</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>z_solve</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>binvrhs</t>
-        </is>
-      </c>
+          <t>exact_solution</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -905,25 +954,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>adi</t>
+          <t>initialize</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>x_solve</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>lhsinit</t>
-        </is>
-      </c>
+          <t>exact_solution</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -931,25 +977,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>adi</t>
+          <t>verify</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>y_solve</t>
+          <t>error_norm</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>lhsinit</t>
+          <t>exact_solution</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -957,25 +1004,18 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>adi</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>z_solve</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>lhsinit</t>
-        </is>
-      </c>
+          <t>print_results</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -983,25 +1023,18 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>adi</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>x_solve</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>matmul_sub</t>
-        </is>
-      </c>
+          <t>set_constants</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1009,25 +1042,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>adi</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>y_solve</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>matmul_sub</t>
-        </is>
-      </c>
+          <t>timer_clear</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1035,25 +1061,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>adi</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>z_solve</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>matmul_sub</t>
-        </is>
-      </c>
+          <t>timer_read</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1061,241 +1080,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>adi</t>
+          <t>verify</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>x_solve</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>matvec_sub</t>
-        </is>
-      </c>
+          <t>rhs_norm</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>bt</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>adi</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>y_solve</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>matvec_sub</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>bt</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>adi</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>z_solve</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>matvec_sub</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>bt</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>exact_rhs</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>exact_solution</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>bt</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>initialize</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>exact_solution</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>bt</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>verify</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>error_norm</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>exact_solution</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>bt</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>print_results</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>bt</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>set_constants</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>bt</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>timer_clear</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>bt</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>timer_read</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>bt</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>verify</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>rhs_norm</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
